--- a/src/test/resources/testdata/issue.xlsx
+++ b/src/test/resources/testdata/issue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java_Frameworks\MyProject\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85575217-768E-45C9-813E-96DCA35C45D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610F726C-BBB9-466B-B0BB-6989CBFA8405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0D6B915E-7FF5-418F-839A-4F44DD84DC0A}"/>
   </bookViews>
@@ -371,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E058F9BA-240B-4F04-9890-CB2304589D0D}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -391,7 +391,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>1000000</v>
+        <v>1031315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1031117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1031145</v>
       </c>
     </row>
   </sheetData>
